--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_06.08.24_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_06.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700085.806932</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700086.3488824</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700085.806932.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700086.3488824.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>2927.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2925.25</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>2.25</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700086.5694463</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700086.9610102</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700086.5694463.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700086.9610102.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>2924.2</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2928.45</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>4.25</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700087.032879</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700087.3400538</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700087.032879.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700087.3400538.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>2928.95</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2926.05</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.899999999999636</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700087.4123738</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700088.667616</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700087.4123738.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700088.667616.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>2924.3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>2912.9</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-11.40000000000009</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700088.8597913</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700089.1897402</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700088.8597913.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700089.1897402.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>2917.2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2912.1</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>5.099999999999909</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700089.3753257</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700089.7368016</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700089.3753257.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700089.7368016.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>2911.55</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2909.95</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-1.600000000000364</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700089.8962553</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700090.1134517</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700089.8962553.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700090.1134517.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>2903</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2907.35</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>4.349999999999909</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700090.355677</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700090.6585133</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700090.355677.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700090.6585133.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>2911.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2908.2</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>3.600000000000364</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700090.756885</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700091.020824</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700090.756885.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700091.020824.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>2905.7</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>2913.45</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>7.75</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700091.0347867</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700092.7871342</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700091.0347867.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700092.7871342.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>2913.45</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>2916.8</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-3.350000000000364</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700093.9027386</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731700094.2534823</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700093.9027386.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700094.2534823.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>2919.2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>2917.85</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1.349999999999909</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731700095.0126822</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731700098.3793287</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700095.0126822.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700098.3793287.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>2915.95</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>2896.65</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-19.29999999999973</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.66</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731700098.8742929</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731700099.1880355</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700098.8742929.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700099.1880355.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>2891.15</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>2894.65</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>3.5</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731700099.78955</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731700100.4418035</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700099.78955.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700100.4418035.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>2890.05</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>2887.1</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-2.950000000000273</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731700100.755694</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731700100.8534577</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700100.755694.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700100.8534577.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>2881.8</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>2886.35</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>4.549999999999727</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731700101.0316834</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731700102.1030748</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700101.0316834.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700102.1030748.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>2891.15</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>2897.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-6.049999999999727</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731700103.307323</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731700103.5564587</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700103.307323.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700103.5564587.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>2904</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>2899.85</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>4.150000000000091</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731700103.950852</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731700104.4218693</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700103.950852.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700104.4218693.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>2905.85</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>2901.55</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>4.299999999999727</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731700104.4358318</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731700105.0384173</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700104.4358318.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700105.0384173.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>2901.55</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>2902.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.8499999999999091</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731700105.1111047</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731700105.343058</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700105.1111047.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700105.343058.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>2902.35</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>2900.1</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>2.25</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731700106.0541766</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731700106.321328</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700106.0541766.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700106.321328.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>2898.1</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>2900.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>2.700000000000273</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731700106.422663</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731700106.8187642</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700106.422663.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700106.8187642.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>2902.05</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>2901.3</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.75</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731700106.9805784</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731700107.3701987</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700106.9805784.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700107.3701987.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>2904.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>2903.05</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1.349999999999909</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1735,51 +1889,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731700108.5517104</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731700109.0932994</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700108.5517104.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700109.0932994.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>2906.95</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>2905.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>1.149999999999636</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1787,51 +1947,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731700110.711777</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731700111.2298446</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700110.711777.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700111.2298446.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>11.836</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>11.853</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.01699999999999946</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1839,51 +2005,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731700111.9302537</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731700112.2461486</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700111.9302537.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700112.2461486.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>11.835</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>11.841</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.005999999999998451</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1891,51 +2063,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731700112.4766405</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731700113.0530732</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700112.4766405.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700113.0530732.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>11.827</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>11.82</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.006999999999999673</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1943,51 +2121,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731700113.224757</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731700113.7277188</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700113.224757.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700113.7277188.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>11.84</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>11.823</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.01699999999999946</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1995,51 +2179,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731700115.153805</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731700116.265558</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700115.153805.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700116.265558.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.854</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11.865</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.01100000000000101</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2047,51 +2237,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731700116.3189032</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731700116.7833447</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700116.3189032.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700116.7833447.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>11.863</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>11.864</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.001000000000001222</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2099,51 +2295,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731700116.8791864</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731700119.5915115</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700116.8791864.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700119.5915115.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>11.872</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>11.907</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.03500000000000014</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -2151,51 +2353,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731700120.1302416</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731700120.726101</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700120.1302416.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700120.726101.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>11.907</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>11.902</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.005000000000000782</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2203,51 +2411,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731700121.5529044</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731700121.6765387</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700121.5529044.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700121.6765387.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>11.893</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>11.9</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2255,51 +2469,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731700122.2186902</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731700122.5395274</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700122.2186902.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700122.5395274.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>11.916</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>11.906</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.009999999999999787</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2307,51 +2527,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731700123.291762</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731700123.3618693</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700123.291762.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700123.3618693.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>11.915</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>11.907</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.007999999999999119</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2359,51 +2585,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731700123.3768017</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731700123.482106</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700123.3768017.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700123.482106.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>11.907</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>11.914</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2411,51 +2643,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731700123.5526035</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731700124.1492906</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700123.5526035.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700124.1492906.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>11.917</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>11.916</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.0009999999999994458</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2463,51 +2701,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731700124.4872692</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731700124.5855324</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700124.4872692.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700124.5855324.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>11.938</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>11.93</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.008000000000000895</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2515,51 +2759,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731700125.7388222</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731700125.8167837</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700125.7388222.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700125.8167837.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>11.924</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>11.928</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.004000000000001336</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2567,51 +2817,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731700125.9494004</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731700126.502682</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700125.9494004.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700126.502682.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>11.921</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>11.922</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.001000000000001222</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2619,51 +2875,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731700127.2895494</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731700127.5160434</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700127.2895494.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700127.5160434.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>11.912</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>11.917</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.004999999999999005</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2671,51 +2933,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731700127.697966</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731700127.8944438</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700127.697966.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700127.8944438.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>11.909</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>11.913</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.003999999999999559</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2723,51 +2991,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731700128.1225607</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731700128.7832189</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700128.1225607.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700128.7832189.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>11.922</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>11.911</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.01100000000000101</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2775,51 +3049,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731700129.5729616</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731700129.9510918</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700129.5729616.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700129.9510918.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>11.909</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>11.91</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.0009999999999994458</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2827,51 +3107,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731700131.0631099</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731700131.1270452</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700131.0631099.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700131.1270452.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>11.907</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>11.908</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.0009999999999994458</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2879,51 +3165,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731700131.2057576</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731700131.4056778</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700131.2057576.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700131.4056778.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>11.907</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>11.908</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.0009999999999994458</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2931,44 +3223,50 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731700131.6275113</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731700131.6275113.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731700131.6275113.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>11.911</v>
       </c>
-      <c r="J49" t="n">
-        <v>11.911</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>11.916</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.005000000000000782</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>
@@ -3051,16 +3349,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05199999999999605</v>
+        <v>0.04699999999999527</v>
       </c>
       <c r="C3" t="n">
         <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002260869565217219</v>
+        <v>0.00204347826086936</v>
       </c>
       <c r="E3" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
